--- a/biology/Médecine/Prix_Massry/Prix_Massry.xlsx
+++ b/biology/Médecine/Prix_Massry/Prix_Massry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prix Massry est un prix scientifique américain décerné chaque année par la Fondation Meira et Shaul Massry. Le prix est doté, à partir de 2017, de 200 000 dollars américains et a pour objectif de promouvoir la recherche biomédicale dans les domaines de la néphrologie, de la physiologie et des domaines connexes.
-La fondation a été créée en 1996 par le néphrologue Shaul Massry (né le 30 novembre 1930, et mort le 11 avril 2023), titulaire de la chaire de médecine Bernard J. Hanley à l'université de Californie du Sud[1].
+La fondation a été créée en 1996 par le néphrologue Shaul Massry (né le 30 novembre 1930, et mort le 11 avril 2023), titulaire de la chaire de médecine Bernard J. Hanley à l'université de Californie du Sud.
 Plusieurs lauréats (en octobre 2023 on en compte 22 sur 51) ont également remporté par la suite un prix Nobel.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les dates des lauréats du prix Nobel entre parenthèses.
